--- a/tabular/extension/feline/fiv-refseqs.xlsx
+++ b/tabular/extension/feline/fiv-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-FIV/tabular/extension/feline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5A6F5B-6B19-DC47-BFA3-62A14520CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93593094-BB14-BF49-BACB-C6F809ADDA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20820" yWindow="500" windowWidth="29040" windowHeight="26040" xr2:uid="{C79CE5AB-0F4B-C844-9A81-F55F3EC5C156}"/>
   </bookViews>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A23B7-5609-214A-B6E5-B813689BB535}">
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1596,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>

--- a/tabular/extension/feline/fiv-refseqs.xlsx
+++ b/tabular/extension/feline/fiv-refseqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-FIV/tabular/extension/feline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93593094-BB14-BF49-BACB-C6F809ADDA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA3151-BC04-F04E-8A4A-E3B16F812834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20820" yWindow="500" windowWidth="29040" windowHeight="26040" xr2:uid="{C79CE5AB-0F4B-C844-9A81-F55F3EC5C156}"/>
+    <workbookView xWindow="14760" yWindow="760" windowWidth="34380" windowHeight="25680" xr2:uid="{C79CE5AB-0F4B-C844-9A81-F55F3EC5C156}"/>
   </bookViews>
   <sheets>
     <sheet name="fiv-refseqs" sheetId="1" r:id="rId1"/>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A23B7-5609-214A-B6E5-B813689BB535}">
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/extension/feline/fiv-refseqs.xlsx
+++ b/tabular/extension/feline/fiv-refseqs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-FIV/tabular/extension/feline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE-FIV/tabular/extension/feline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA3151-BC04-F04E-8A4A-E3B16F812834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8CAA5-326B-DB49-BE8D-4D24A4E34346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="760" windowWidth="34380" windowHeight="25680" xr2:uid="{C79CE5AB-0F4B-C844-9A81-F55F3EC5C156}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{C79CE5AB-0F4B-C844-9A81-F55F3EC5C156}"/>
   </bookViews>
   <sheets>
     <sheet name="fiv-refseqs" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1397,19 +1397,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A23B7-5609-214A-B6E5-B813689BB535}">
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,12 +1453,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1470,33 +1470,36 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>2928341</v>
+        <v>24741092</v>
       </c>
       <c r="I2">
-        <v>9474</v>
+        <v>8030</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>1996</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1511,36 +1514,36 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>24741092</v>
       </c>
       <c r="I3">
-        <v>9470</v>
+        <v>8024</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
-        <v>9</v>
+      <c r="L3">
+        <v>2001</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1555,33 +1558,36 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
+      <c r="H4">
+        <v>24741092</v>
       </c>
       <c r="I4">
-        <v>9464</v>
+        <v>8036</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
-        <v>9</v>
+      <c r="L4">
+        <v>2001</v>
       </c>
       <c r="M4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1596,33 +1602,36 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5">
-        <v>15308694</v>
+        <v>24741092</v>
       </c>
       <c r="I5">
-        <v>9466</v>
+        <v>8030</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" t="s">
-        <v>9</v>
+      <c r="L5">
+        <v>2002</v>
       </c>
       <c r="M5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1637,33 +1646,36 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
+      <c r="H6">
+        <v>24741092</v>
       </c>
       <c r="I6">
-        <v>9751</v>
+        <v>8027</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" t="s">
-        <v>9</v>
+      <c r="L6">
+        <v>2002</v>
       </c>
       <c r="M6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1678,33 +1690,36 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
+      <c r="H7">
+        <v>24741092</v>
       </c>
       <c r="I7">
-        <v>9464</v>
+        <v>8029</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
-        <v>9</v>
+      <c r="L7">
+        <v>2003</v>
       </c>
       <c r="M7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1719,651 +1734,696 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>16501082</v>
+        <v>24741092</v>
       </c>
       <c r="I8">
-        <v>9092</v>
+        <v>8050</v>
       </c>
       <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>2005</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>24741092</v>
+      </c>
+      <c r="I9">
+        <v>8041</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>2006</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>24741092</v>
+      </c>
+      <c r="I10">
+        <v>8038</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>2007</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>24741092</v>
+      </c>
+      <c r="I11">
+        <v>8050</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>2006</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>24741092</v>
+      </c>
+      <c r="I12">
+        <v>8029</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>2009</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>24741092</v>
+      </c>
+      <c r="I13">
+        <v>8029</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>2009</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>24741092</v>
+      </c>
+      <c r="I14">
+        <v>8035</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>2009</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>24741092</v>
+      </c>
+      <c r="I15">
+        <v>8016</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>1984</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>24741092</v>
+      </c>
+      <c r="I16">
+        <v>8025</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>2007</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>24741092</v>
+      </c>
+      <c r="I17">
+        <v>8019</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>2010</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>24741092</v>
+      </c>
+      <c r="I18">
+        <v>8019</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>2010</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>24741092</v>
+      </c>
+      <c r="I19">
+        <v>8019</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>2010</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>24741092</v>
+      </c>
+      <c r="I20">
+        <v>8019</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>2010</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>24741092</v>
+      </c>
+      <c r="I21">
+        <v>8016</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>2010</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>24741092</v>
+      </c>
+      <c r="I22">
+        <v>8036</v>
+      </c>
+      <c r="J22" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>143</v>
-      </c>
-      <c r="N8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>9464</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>17445856</v>
-      </c>
-      <c r="I10">
-        <v>9166</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>2004</v>
+      </c>
+      <c r="M22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>24741092</v>
+      </c>
+      <c r="I23">
+        <v>8038</v>
+      </c>
+      <c r="J23" t="s">
         <v>29</v>
       </c>
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>17445856</v>
-      </c>
-      <c r="I11">
-        <v>9187</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12">
-        <v>17445856</v>
-      </c>
-      <c r="I12">
-        <v>9151</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>17445856</v>
-      </c>
-      <c r="I13">
-        <v>9160</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14">
-        <v>17445856</v>
-      </c>
-      <c r="I14">
-        <v>9165</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15">
-        <v>17445856</v>
-      </c>
-      <c r="I15">
-        <v>9161</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <v>17445856</v>
-      </c>
-      <c r="I16">
-        <v>9145</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17">
-        <v>17445856</v>
-      </c>
-      <c r="I17">
-        <v>9145</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>17445856</v>
-      </c>
-      <c r="I18">
-        <v>9137</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <v>17445856</v>
-      </c>
-      <c r="I19">
-        <v>9147</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20">
-        <v>17445856</v>
-      </c>
-      <c r="I20">
-        <v>9203</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>17445856</v>
-      </c>
-      <c r="I21">
-        <v>9203</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>17445856</v>
-      </c>
-      <c r="I22">
-        <v>9152</v>
-      </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <v>18251995</v>
-      </c>
-      <c r="I23">
-        <v>9898</v>
-      </c>
-      <c r="J23" t="s">
-        <v>46</v>
-      </c>
       <c r="K23" t="s">
         <v>9</v>
       </c>
-      <c r="L23" t="s">
-        <v>9</v>
+      <c r="L23">
+        <v>2004</v>
       </c>
       <c r="M23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -2378,33 +2438,36 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="H24">
-        <v>18251995</v>
+        <v>24741092</v>
       </c>
       <c r="I24">
-        <v>9891</v>
+        <v>8044</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
         <v>9</v>
       </c>
-      <c r="L24" t="s">
-        <v>9</v>
+      <c r="L24">
+        <v>2003</v>
       </c>
       <c r="M24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2428,16 +2491,16 @@
         <v>24741092</v>
       </c>
       <c r="I25">
-        <v>8030</v>
+        <v>8044</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
         <v>9</v>
       </c>
       <c r="L25">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="M25" t="s">
         <v>47</v>
@@ -2446,9 +2509,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2472,16 +2535,16 @@
         <v>24741092</v>
       </c>
       <c r="I26">
-        <v>8024</v>
+        <v>8026</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K26" t="s">
         <v>9</v>
       </c>
       <c r="L26">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="M26" t="s">
         <v>47</v>
@@ -2490,9 +2553,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2507,36 +2570,33 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
       </c>
       <c r="H27">
-        <v>24741092</v>
+        <v>18251995</v>
       </c>
       <c r="I27">
-        <v>8036</v>
+        <v>9898</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s">
         <v>9</v>
       </c>
-      <c r="L27">
-        <v>2001</v>
+      <c r="L27" t="s">
+        <v>9</v>
       </c>
       <c r="M27" t="s">
         <v>47</v>
       </c>
-      <c r="N27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2551,36 +2611,33 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
       </c>
       <c r="H28">
-        <v>24741092</v>
+        <v>18251995</v>
       </c>
       <c r="I28">
-        <v>8030</v>
+        <v>9891</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s">
         <v>9</v>
       </c>
-      <c r="L28">
-        <v>2002</v>
+      <c r="L28" t="s">
+        <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2595,36 +2652,33 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
       </c>
-      <c r="H29">
-        <v>24741092</v>
+      <c r="H29" t="s">
+        <v>9</v>
       </c>
       <c r="I29">
-        <v>8027</v>
+        <v>9751</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
         <v>9</v>
       </c>
-      <c r="L29">
-        <v>2002</v>
+      <c r="L29" t="s">
+        <v>9</v>
       </c>
       <c r="M29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -2639,36 +2693,30 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="H30">
-        <v>24741092</v>
+        <v>7474172</v>
       </c>
       <c r="I30">
-        <v>8029</v>
+        <v>9745</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
         <v>9</v>
       </c>
-      <c r="L30">
-        <v>2003</v>
+      <c r="L30" t="s">
+        <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2683,36 +2731,36 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
       </c>
       <c r="H31">
-        <v>24741092</v>
+        <v>16501082</v>
       </c>
       <c r="I31">
-        <v>8050</v>
+        <v>9092</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
         <v>9</v>
       </c>
-      <c r="L31">
-        <v>2005</v>
+      <c r="L31" t="s">
+        <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="N31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2727,36 +2775,33 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
       </c>
       <c r="H32">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I32">
-        <v>8041</v>
+        <v>9166</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
         <v>9</v>
       </c>
-      <c r="L32">
-        <v>2006</v>
+      <c r="L32" t="s">
+        <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -2771,36 +2816,33 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
       </c>
       <c r="H33">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I33">
-        <v>8038</v>
+        <v>9187</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K33" t="s">
         <v>9</v>
       </c>
-      <c r="L33">
-        <v>2007</v>
+      <c r="L33" t="s">
+        <v>9</v>
       </c>
       <c r="M33" t="s">
-        <v>47</v>
-      </c>
-      <c r="N33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -2815,36 +2857,33 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
       </c>
       <c r="H34">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I34">
-        <v>8050</v>
+        <v>9151</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
         <v>9</v>
       </c>
-      <c r="L34">
-        <v>2006</v>
+      <c r="L34" t="s">
+        <v>9</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -2859,36 +2898,33 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
       </c>
       <c r="H35">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I35">
-        <v>8029</v>
+        <v>9160</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K35" t="s">
         <v>9</v>
       </c>
-      <c r="L35">
-        <v>2009</v>
+      <c r="L35" t="s">
+        <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -2903,36 +2939,33 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
       </c>
       <c r="H36">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I36">
-        <v>8029</v>
+        <v>9165</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K36" t="s">
         <v>9</v>
       </c>
-      <c r="L36">
-        <v>2009</v>
+      <c r="L36" t="s">
+        <v>9</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2947,36 +2980,33 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
       </c>
       <c r="H37">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I37">
-        <v>8035</v>
+        <v>9161</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
         <v>9</v>
       </c>
-      <c r="L37">
-        <v>2009</v>
+      <c r="L37" t="s">
+        <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>47</v>
-      </c>
-      <c r="N37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2991,36 +3021,33 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
       </c>
       <c r="H38">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I38">
-        <v>8016</v>
+        <v>9145</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
         <v>9</v>
       </c>
-      <c r="L38">
-        <v>1984</v>
+      <c r="L38" t="s">
+        <v>9</v>
       </c>
       <c r="M38" t="s">
-        <v>47</v>
-      </c>
-      <c r="N38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -3035,36 +3062,33 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
       <c r="H39">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I39">
-        <v>8025</v>
+        <v>9145</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K39" t="s">
         <v>9</v>
       </c>
-      <c r="L39">
-        <v>2007</v>
+      <c r="L39" t="s">
+        <v>9</v>
       </c>
       <c r="M39" t="s">
-        <v>47</v>
-      </c>
-      <c r="N39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -3079,36 +3103,33 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
       <c r="H40">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I40">
-        <v>8019</v>
+        <v>9137</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K40" t="s">
         <v>9</v>
       </c>
-      <c r="L40">
-        <v>2010</v>
+      <c r="L40" t="s">
+        <v>9</v>
       </c>
       <c r="M40" t="s">
-        <v>47</v>
-      </c>
-      <c r="N40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -3123,36 +3144,33 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
       </c>
       <c r="H41">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I41">
-        <v>8019</v>
+        <v>9147</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K41" t="s">
         <v>9</v>
       </c>
-      <c r="L41">
-        <v>2010</v>
+      <c r="L41" t="s">
+        <v>9</v>
       </c>
       <c r="M41" t="s">
-        <v>47</v>
-      </c>
-      <c r="N41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -3167,36 +3185,33 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I42">
-        <v>8019</v>
+        <v>9203</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K42" t="s">
         <v>9</v>
       </c>
-      <c r="L42">
-        <v>2010</v>
+      <c r="L42" t="s">
+        <v>9</v>
       </c>
       <c r="M42" t="s">
-        <v>47</v>
-      </c>
-      <c r="N42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -3211,36 +3226,33 @@
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
       </c>
       <c r="H43">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I43">
-        <v>8019</v>
+        <v>9203</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
         <v>9</v>
       </c>
-      <c r="L43">
-        <v>2010</v>
+      <c r="L43" t="s">
+        <v>9</v>
       </c>
       <c r="M43" t="s">
-        <v>47</v>
-      </c>
-      <c r="N43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -3255,36 +3267,33 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
       </c>
       <c r="H44">
-        <v>24741092</v>
+        <v>17445856</v>
       </c>
       <c r="I44">
-        <v>8016</v>
+        <v>9152</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="K44" t="s">
         <v>9</v>
       </c>
-      <c r="L44">
-        <v>2010</v>
+      <c r="L44" t="s">
+        <v>9</v>
       </c>
       <c r="M44" t="s">
-        <v>47</v>
-      </c>
-      <c r="N44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -3299,7 +3308,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -3308,7 +3317,7 @@
         <v>24741092</v>
       </c>
       <c r="I45">
-        <v>8036</v>
+        <v>8108</v>
       </c>
       <c r="J45" t="s">
         <v>29</v>
@@ -3317,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="L45">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="M45" t="s">
         <v>47</v>
@@ -3326,9 +3335,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -3343,7 +3352,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
@@ -3352,7 +3361,7 @@
         <v>24741092</v>
       </c>
       <c r="I46">
-        <v>8038</v>
+        <v>8111</v>
       </c>
       <c r="J46" t="s">
         <v>29</v>
@@ -3361,7 +3370,7 @@
         <v>9</v>
       </c>
       <c r="L46">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="M46" t="s">
         <v>47</v>
@@ -3370,9 +3379,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -3387,7 +3396,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
@@ -3396,7 +3405,7 @@
         <v>24741092</v>
       </c>
       <c r="I47">
-        <v>8044</v>
+        <v>8111</v>
       </c>
       <c r="J47" t="s">
         <v>29</v>
@@ -3414,9 +3423,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -3431,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
@@ -3440,7 +3449,7 @@
         <v>24741092</v>
       </c>
       <c r="I48">
-        <v>8044</v>
+        <v>8111</v>
       </c>
       <c r="J48" t="s">
         <v>29</v>
@@ -3449,7 +3458,7 @@
         <v>9</v>
       </c>
       <c r="L48">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="M48" t="s">
         <v>47</v>
@@ -3458,9 +3467,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -3475,7 +3484,7 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -3484,7 +3493,7 @@
         <v>24741092</v>
       </c>
       <c r="I49">
-        <v>8026</v>
+        <v>8114</v>
       </c>
       <c r="J49" t="s">
         <v>29</v>
@@ -3493,7 +3502,7 @@
         <v>9</v>
       </c>
       <c r="L49">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="M49" t="s">
         <v>47</v>
@@ -3502,9 +3511,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -3528,7 +3537,7 @@
         <v>24741092</v>
       </c>
       <c r="I50">
-        <v>8108</v>
+        <v>8111</v>
       </c>
       <c r="J50" t="s">
         <v>29</v>
@@ -3537,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="L50">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="M50" t="s">
         <v>47</v>
@@ -3546,9 +3555,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -3581,7 +3590,7 @@
         <v>9</v>
       </c>
       <c r="L51">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="M51" t="s">
         <v>47</v>
@@ -3590,9 +3599,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -3625,7 +3634,7 @@
         <v>9</v>
       </c>
       <c r="L52">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="M52" t="s">
         <v>47</v>
@@ -3634,9 +3643,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -3669,7 +3678,7 @@
         <v>9</v>
       </c>
       <c r="L53">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="M53" t="s">
         <v>47</v>
@@ -3678,9 +3687,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -3704,7 +3713,7 @@
         <v>24741092</v>
       </c>
       <c r="I54">
-        <v>8114</v>
+        <v>8112</v>
       </c>
       <c r="J54" t="s">
         <v>29</v>
@@ -3713,18 +3722,18 @@
         <v>9</v>
       </c>
       <c r="L54">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="M54" t="s">
         <v>47</v>
       </c>
       <c r="N54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -3748,7 +3757,7 @@
         <v>24741092</v>
       </c>
       <c r="I55">
-        <v>8111</v>
+        <v>8108</v>
       </c>
       <c r="J55" t="s">
         <v>29</v>
@@ -3757,7 +3766,7 @@
         <v>9</v>
       </c>
       <c r="L55">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="M55" t="s">
         <v>47</v>
@@ -3766,9 +3775,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
@@ -3792,7 +3801,7 @@
         <v>24741092</v>
       </c>
       <c r="I56">
-        <v>8111</v>
+        <v>8143</v>
       </c>
       <c r="J56" t="s">
         <v>29</v>
@@ -3801,18 +3810,18 @@
         <v>9</v>
       </c>
       <c r="L56">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="M56" t="s">
         <v>47</v>
       </c>
       <c r="N56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
@@ -3836,7 +3845,7 @@
         <v>24741092</v>
       </c>
       <c r="I57">
-        <v>8111</v>
+        <v>8114</v>
       </c>
       <c r="J57" t="s">
         <v>29</v>
@@ -3845,18 +3854,18 @@
         <v>9</v>
       </c>
       <c r="L57">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="M57" t="s">
         <v>47</v>
       </c>
       <c r="N57" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -3880,7 +3889,7 @@
         <v>24741092</v>
       </c>
       <c r="I58">
-        <v>8111</v>
+        <v>8114</v>
       </c>
       <c r="J58" t="s">
         <v>29</v>
@@ -3889,18 +3898,18 @@
         <v>9</v>
       </c>
       <c r="L58">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="M58" t="s">
         <v>47</v>
       </c>
       <c r="N58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -3924,7 +3933,7 @@
         <v>24741092</v>
       </c>
       <c r="I59">
-        <v>8112</v>
+        <v>8114</v>
       </c>
       <c r="J59" t="s">
         <v>29</v>
@@ -3933,7 +3942,7 @@
         <v>9</v>
       </c>
       <c r="L59">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="M59" t="s">
         <v>47</v>
@@ -3942,9 +3951,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -3968,7 +3977,7 @@
         <v>24741092</v>
       </c>
       <c r="I60">
-        <v>8108</v>
+        <v>8114</v>
       </c>
       <c r="J60" t="s">
         <v>29</v>
@@ -3977,18 +3986,18 @@
         <v>9</v>
       </c>
       <c r="L60">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="M60" t="s">
         <v>47</v>
       </c>
       <c r="N60" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -4012,7 +4021,7 @@
         <v>24741092</v>
       </c>
       <c r="I61">
-        <v>8143</v>
+        <v>8114</v>
       </c>
       <c r="J61" t="s">
         <v>29</v>
@@ -4021,18 +4030,18 @@
         <v>9</v>
       </c>
       <c r="L61">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="M61" t="s">
         <v>47</v>
       </c>
       <c r="N61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -4065,18 +4074,18 @@
         <v>9</v>
       </c>
       <c r="L62">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="M62" t="s">
         <v>47</v>
       </c>
       <c r="N62" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -4100,7 +4109,7 @@
         <v>24741092</v>
       </c>
       <c r="I63">
-        <v>8114</v>
+        <v>8111</v>
       </c>
       <c r="J63" t="s">
         <v>29</v>
@@ -4109,18 +4118,18 @@
         <v>9</v>
       </c>
       <c r="L63">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="M63" t="s">
         <v>47</v>
       </c>
       <c r="N63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -4153,18 +4162,18 @@
         <v>9</v>
       </c>
       <c r="L64">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="M64" t="s">
         <v>47</v>
       </c>
       <c r="N64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -4179,36 +4188,36 @@
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65">
-        <v>24741092</v>
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
       </c>
       <c r="I65">
-        <v>8114</v>
+        <v>9470</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K65" t="s">
         <v>9</v>
       </c>
-      <c r="L65">
-        <v>2010</v>
+      <c r="L65" t="s">
+        <v>9</v>
       </c>
       <c r="M65" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="N65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -4223,39 +4232,36 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
         <v>9</v>
       </c>
       <c r="H66">
-        <v>24741092</v>
+        <v>15308694</v>
       </c>
       <c r="I66">
-        <v>8114</v>
+        <v>9466</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K66" t="s">
         <v>9</v>
       </c>
-      <c r="L66">
-        <v>2010</v>
+      <c r="L66" t="s">
+        <v>9</v>
       </c>
       <c r="M66" t="s">
-        <v>47</v>
-      </c>
-      <c r="N66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -4267,36 +4273,33 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H67">
-        <v>24741092</v>
+        <v>2928341</v>
       </c>
       <c r="I67">
-        <v>8114</v>
+        <v>9474</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>9</v>
-      </c>
-      <c r="L67">
-        <v>2010</v>
+        <v>19</v>
+      </c>
+      <c r="L67" t="s">
+        <v>9</v>
       </c>
       <c r="M67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -4311,36 +4314,33 @@
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
       </c>
       <c r="H68">
-        <v>24741092</v>
+        <v>1697907</v>
       </c>
       <c r="I68">
-        <v>8111</v>
+        <v>9468</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K68" t="s">
         <v>9</v>
       </c>
-      <c r="L68">
-        <v>2011</v>
+      <c r="L68" t="s">
+        <v>9</v>
       </c>
       <c r="M68" t="s">
-        <v>47</v>
-      </c>
-      <c r="N68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -4355,36 +4355,33 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
       </c>
-      <c r="H69">
-        <v>24741092</v>
+      <c r="H69" t="s">
+        <v>9</v>
       </c>
       <c r="I69">
-        <v>8114</v>
+        <v>9429</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K69" t="s">
         <v>9</v>
       </c>
-      <c r="L69">
-        <v>2008</v>
+      <c r="L69" t="s">
+        <v>9</v>
       </c>
       <c r="M69" t="s">
-        <v>47</v>
-      </c>
-      <c r="N69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -4404,28 +4401,31 @@
       <c r="G70" t="s">
         <v>9</v>
       </c>
-      <c r="H70">
-        <v>1697907</v>
+      <c r="H70" t="s">
+        <v>9</v>
       </c>
       <c r="I70">
-        <v>9468</v>
+        <v>8977</v>
       </c>
       <c r="J70" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="K70" t="s">
         <v>9</v>
       </c>
-      <c r="L70" t="s">
-        <v>9</v>
+      <c r="L70">
+        <v>2018</v>
       </c>
       <c r="M70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="N70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -4440,16 +4440,16 @@
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H71">
-        <v>1649349</v>
+        <v>2813380</v>
       </c>
       <c r="I71">
-        <v>9471</v>
+        <v>9474</v>
       </c>
       <c r="J71" t="s">
         <v>9</v>
@@ -4464,9 +4464,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -4484,13 +4484,13 @@
         <v>159</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="H72">
+        <v>1660215</v>
       </c>
       <c r="I72">
-        <v>9429</v>
+        <v>9485</v>
       </c>
       <c r="J72" t="s">
         <v>9</v>
@@ -4502,12 +4502,12 @@
         <v>9</v>
       </c>
       <c r="M72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -4527,31 +4527,28 @@
       <c r="G73" t="s">
         <v>9</v>
       </c>
-      <c r="H73">
-        <v>28963205</v>
+      <c r="H73" t="s">
+        <v>9</v>
       </c>
       <c r="I73">
-        <v>8967</v>
+        <v>9464</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K73" t="s">
         <v>9</v>
       </c>
-      <c r="L73">
-        <v>2013</v>
+      <c r="L73" t="s">
+        <v>9</v>
       </c>
       <c r="M73" t="s">
-        <v>150</v>
-      </c>
-      <c r="N73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
@@ -4566,7 +4563,7 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G74" t="s">
         <v>9</v>
@@ -4575,27 +4572,24 @@
         <v>9</v>
       </c>
       <c r="I74">
-        <v>8977</v>
+        <v>9464</v>
       </c>
       <c r="J74" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="K74" t="s">
         <v>9</v>
       </c>
-      <c r="L74">
-        <v>2018</v>
+      <c r="L74" t="s">
+        <v>9</v>
       </c>
       <c r="M74" t="s">
-        <v>152</v>
-      </c>
-      <c r="N74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -4619,27 +4613,24 @@
         <v>9</v>
       </c>
       <c r="I75">
-        <v>8967</v>
+        <v>9464</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K75" t="s">
         <v>9</v>
       </c>
-      <c r="L75">
-        <v>2015</v>
+      <c r="L75" t="s">
+        <v>9</v>
       </c>
       <c r="M75" t="s">
-        <v>150</v>
-      </c>
-      <c r="N75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -4659,31 +4650,28 @@
       <c r="G76" t="s">
         <v>9</v>
       </c>
-      <c r="H76" t="s">
-        <v>9</v>
+      <c r="H76">
+        <v>1649349</v>
       </c>
       <c r="I76">
-        <v>8967</v>
+        <v>9471</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K76" t="s">
         <v>9</v>
       </c>
-      <c r="L76">
-        <v>2012</v>
+      <c r="L76" t="s">
+        <v>9</v>
       </c>
       <c r="M76" t="s">
-        <v>150</v>
-      </c>
-      <c r="N76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -4703,8 +4691,8 @@
       <c r="G77" t="s">
         <v>9</v>
       </c>
-      <c r="H77" t="s">
-        <v>9</v>
+      <c r="H77">
+        <v>28963205</v>
       </c>
       <c r="I77">
         <v>8967</v>
@@ -4716,7 +4704,7 @@
         <v>9</v>
       </c>
       <c r="L77">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="M77" t="s">
         <v>150</v>
@@ -4725,9 +4713,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -4760,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="L78">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="M78" t="s">
         <v>150</v>
@@ -4769,9 +4757,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -4804,7 +4792,7 @@
         <v>9</v>
       </c>
       <c r="L79">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="M79" t="s">
         <v>150</v>
@@ -4813,9 +4801,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -4848,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="L80">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="M80" t="s">
         <v>150</v>
@@ -4857,9 +4845,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -4901,9 +4889,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -4936,7 +4924,7 @@
         <v>9</v>
       </c>
       <c r="L82">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="M82" t="s">
         <v>150</v>
@@ -4945,9 +4933,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
@@ -4971,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="I83">
-        <v>8975</v>
+        <v>8967</v>
       </c>
       <c r="J83" t="s">
         <v>18</v>
@@ -4980,18 +4968,18 @@
         <v>9</v>
       </c>
       <c r="L83">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="M83" t="s">
         <v>150</v>
       </c>
       <c r="N83" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
@@ -5015,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="I84">
-        <v>8962</v>
+        <v>8967</v>
       </c>
       <c r="J84" t="s">
         <v>18</v>
@@ -5024,18 +5012,18 @@
         <v>9</v>
       </c>
       <c r="L84">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="M84" t="s">
         <v>150</v>
       </c>
       <c r="N84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
@@ -5059,7 +5047,7 @@
         <v>9</v>
       </c>
       <c r="I85">
-        <v>8971</v>
+        <v>8967</v>
       </c>
       <c r="J85" t="s">
         <v>18</v>
@@ -5068,18 +5056,18 @@
         <v>9</v>
       </c>
       <c r="L85">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="M85" t="s">
         <v>150</v>
       </c>
       <c r="N85" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
@@ -5103,7 +5091,7 @@
         <v>9</v>
       </c>
       <c r="I86">
-        <v>8961</v>
+        <v>8975</v>
       </c>
       <c r="J86" t="s">
         <v>18</v>
@@ -5121,9 +5109,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
@@ -5147,7 +5135,7 @@
         <v>9</v>
       </c>
       <c r="I87">
-        <v>8970</v>
+        <v>8962</v>
       </c>
       <c r="J87" t="s">
         <v>18</v>
@@ -5165,9 +5153,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -5191,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="I88">
-        <v>8964</v>
+        <v>8971</v>
       </c>
       <c r="J88" t="s">
         <v>18</v>
@@ -5209,9 +5197,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
         <v>22</v>
@@ -5235,7 +5223,7 @@
         <v>9</v>
       </c>
       <c r="I89">
-        <v>8964</v>
+        <v>8961</v>
       </c>
       <c r="J89" t="s">
         <v>18</v>
@@ -5253,9 +5241,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
@@ -5279,7 +5267,7 @@
         <v>9</v>
       </c>
       <c r="I90">
-        <v>8966</v>
+        <v>8970</v>
       </c>
       <c r="J90" t="s">
         <v>18</v>
@@ -5288,7 +5276,7 @@
         <v>9</v>
       </c>
       <c r="L90">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="M90" t="s">
         <v>150</v>
@@ -5297,9 +5285,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
@@ -5323,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="I91">
-        <v>8971</v>
+        <v>8964</v>
       </c>
       <c r="J91" t="s">
         <v>18</v>
@@ -5332,7 +5320,7 @@
         <v>9</v>
       </c>
       <c r="L91">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="M91" t="s">
         <v>150</v>
@@ -5341,9 +5329,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -5367,7 +5355,7 @@
         <v>9</v>
       </c>
       <c r="I92">
-        <v>8970</v>
+        <v>8964</v>
       </c>
       <c r="J92" t="s">
         <v>18</v>
@@ -5376,7 +5364,7 @@
         <v>9</v>
       </c>
       <c r="L92">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="M92" t="s">
         <v>150</v>
@@ -5385,9 +5373,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
@@ -5411,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="I93">
-        <v>8972</v>
+        <v>8966</v>
       </c>
       <c r="J93" t="s">
         <v>18</v>
@@ -5426,12 +5414,12 @@
         <v>150</v>
       </c>
       <c r="N93" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
@@ -5455,7 +5443,7 @@
         <v>9</v>
       </c>
       <c r="I94">
-        <v>8970</v>
+        <v>8971</v>
       </c>
       <c r="J94" t="s">
         <v>18</v>
@@ -5470,12 +5458,12 @@
         <v>150</v>
       </c>
       <c r="N94" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
@@ -5514,12 +5502,12 @@
         <v>150</v>
       </c>
       <c r="N95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
@@ -5543,7 +5531,7 @@
         <v>9</v>
       </c>
       <c r="I96">
-        <v>8970</v>
+        <v>8972</v>
       </c>
       <c r="J96" t="s">
         <v>18</v>
@@ -5561,9 +5549,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
@@ -5587,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="I97">
-        <v>8972</v>
+        <v>8970</v>
       </c>
       <c r="J97" t="s">
         <v>18</v>
@@ -5605,9 +5593,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
         <v>22</v>
@@ -5631,7 +5619,7 @@
         <v>9</v>
       </c>
       <c r="I98">
-        <v>8972</v>
+        <v>8970</v>
       </c>
       <c r="J98" t="s">
         <v>18</v>
@@ -5649,9 +5637,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B99" t="s">
         <v>22</v>
@@ -5693,9 +5681,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
@@ -5719,7 +5707,7 @@
         <v>9</v>
       </c>
       <c r="I100">
-        <v>8956</v>
+        <v>8972</v>
       </c>
       <c r="J100" t="s">
         <v>18</v>
@@ -5728,18 +5716,18 @@
         <v>9</v>
       </c>
       <c r="L100">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="M100" t="s">
         <v>150</v>
       </c>
       <c r="N100" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B101" t="s">
         <v>22</v>
@@ -5763,7 +5751,7 @@
         <v>9</v>
       </c>
       <c r="I101">
-        <v>8956</v>
+        <v>8972</v>
       </c>
       <c r="J101" t="s">
         <v>18</v>
@@ -5772,18 +5760,18 @@
         <v>9</v>
       </c>
       <c r="L101">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="M101" t="s">
         <v>150</v>
       </c>
       <c r="N101" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
@@ -5807,7 +5795,7 @@
         <v>9</v>
       </c>
       <c r="I102">
-        <v>8963</v>
+        <v>8970</v>
       </c>
       <c r="J102" t="s">
         <v>18</v>
@@ -5816,18 +5804,18 @@
         <v>9</v>
       </c>
       <c r="L102">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="M102" t="s">
         <v>150</v>
       </c>
       <c r="N102" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B103" t="s">
         <v>22</v>
@@ -5851,7 +5839,7 @@
         <v>9</v>
       </c>
       <c r="I103">
-        <v>8963</v>
+        <v>8956</v>
       </c>
       <c r="J103" t="s">
         <v>18</v>
@@ -5860,18 +5848,18 @@
         <v>9</v>
       </c>
       <c r="L103">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="M103" t="s">
         <v>150</v>
       </c>
       <c r="N103" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B104" t="s">
         <v>22</v>
@@ -5895,7 +5883,7 @@
         <v>9</v>
       </c>
       <c r="I104">
-        <v>8964</v>
+        <v>8956</v>
       </c>
       <c r="J104" t="s">
         <v>18</v>
@@ -5904,18 +5892,18 @@
         <v>9</v>
       </c>
       <c r="L104">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="M104" t="s">
         <v>150</v>
       </c>
       <c r="N104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B105" t="s">
         <v>22</v>
@@ -5939,7 +5927,7 @@
         <v>9</v>
       </c>
       <c r="I105">
-        <v>8976</v>
+        <v>8963</v>
       </c>
       <c r="J105" t="s">
         <v>18</v>
@@ -5948,18 +5936,18 @@
         <v>9</v>
       </c>
       <c r="L105">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="M105" t="s">
         <v>150</v>
       </c>
       <c r="N105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
@@ -5983,7 +5971,7 @@
         <v>9</v>
       </c>
       <c r="I106">
-        <v>8961</v>
+        <v>8963</v>
       </c>
       <c r="J106" t="s">
         <v>18</v>
@@ -5992,18 +5980,18 @@
         <v>9</v>
       </c>
       <c r="L106">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="M106" t="s">
         <v>150</v>
       </c>
       <c r="N106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
@@ -6027,7 +6015,7 @@
         <v>9</v>
       </c>
       <c r="I107">
-        <v>8972</v>
+        <v>8964</v>
       </c>
       <c r="J107" t="s">
         <v>18</v>
@@ -6036,18 +6024,18 @@
         <v>9</v>
       </c>
       <c r="L107">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="M107" t="s">
         <v>150</v>
       </c>
       <c r="N107" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
         <v>22</v>
@@ -6071,7 +6059,7 @@
         <v>9</v>
       </c>
       <c r="I108">
-        <v>8970</v>
+        <v>8976</v>
       </c>
       <c r="J108" t="s">
         <v>18</v>
@@ -6080,18 +6068,18 @@
         <v>9</v>
       </c>
       <c r="L108">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M108" t="s">
         <v>150</v>
       </c>
       <c r="N108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
         <v>22</v>
@@ -6106,33 +6094,36 @@
         <v>16</v>
       </c>
       <c r="F109" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109">
-        <v>2813380</v>
+        <v>9</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
       </c>
       <c r="I109">
-        <v>9474</v>
+        <v>8961</v>
       </c>
       <c r="J109" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K109" t="s">
         <v>9</v>
       </c>
-      <c r="L109" t="s">
-        <v>9</v>
+      <c r="L109">
+        <v>2006</v>
       </c>
       <c r="M109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="N109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
         <v>22</v>
@@ -6152,93 +6143,102 @@
       <c r="G110" t="s">
         <v>9</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110">
+        <v>8972</v>
+      </c>
+      <c r="J110" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" t="s">
+        <v>9</v>
+      </c>
+      <c r="L110">
+        <v>2011</v>
+      </c>
+      <c r="M110" t="s">
+        <v>150</v>
+      </c>
+      <c r="N110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s">
+        <v>142</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111">
+        <v>8970</v>
+      </c>
+      <c r="J111" t="s">
+        <v>18</v>
+      </c>
+      <c r="K111" t="s">
+        <v>9</v>
+      </c>
+      <c r="L111">
+        <v>2012</v>
+      </c>
+      <c r="M111" t="s">
+        <v>150</v>
+      </c>
+      <c r="N111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>138</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" t="s">
+        <v>142</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112">
         <v>7632468</v>
       </c>
-      <c r="I110">
+      <c r="I112">
         <v>9462</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J112" t="s">
         <v>139</v>
-      </c>
-      <c r="K110" t="s">
-        <v>9</v>
-      </c>
-      <c r="L110" t="s">
-        <v>9</v>
-      </c>
-      <c r="M110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>140</v>
-      </c>
-      <c r="B111" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" t="s">
-        <v>160</v>
-      </c>
-      <c r="H111">
-        <v>7474172</v>
-      </c>
-      <c r="I111">
-        <v>9745</v>
-      </c>
-      <c r="J111" t="s">
-        <v>26</v>
-      </c>
-      <c r="K111" t="s">
-        <v>9</v>
-      </c>
-      <c r="L111" t="s">
-        <v>9</v>
-      </c>
-      <c r="M111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G112" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112">
-        <v>1660215</v>
-      </c>
-      <c r="I112">
-        <v>9485</v>
-      </c>
-      <c r="J112" t="s">
-        <v>9</v>
       </c>
       <c r="K112" t="s">
         <v>9</v>
@@ -6252,7 +6252,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N112">
-    <sortCondition ref="B2:B112"/>
+    <sortCondition ref="F2:F112"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tabular/extension/feline/fiv-refseqs.xlsx
+++ b/tabular/extension/feline/fiv-refseqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/retrovirus/Lentivirus-GLUE-FIV/tabular/extension/feline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/retrovirus/Lentivirus-GLUE-FIV/tabular/extension/feline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8CAA5-326B-DB49-BE8D-4D24A4E34346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFCF3D4-18F7-534C-85F2-B5B39570B9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{C79CE5AB-0F4B-C844-9A81-F55F3EC5C156}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>M25381</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Domestic cat</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>AF474246</t>
   </si>
   <si>
@@ -448,9 +442,6 @@
     <t>X57002</t>
   </si>
   <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -499,9 +490,6 @@
     <t xml:space="preserve"> Santos, SP</t>
   </si>
   <si>
-    <t>Global Fca</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
@@ -521,13 +509,25 @@
   </si>
   <si>
     <t>host_sci_name</t>
+  </si>
+  <si>
+    <t>NA_B</t>
+  </si>
+  <si>
+    <t>GlobalFca</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>NA_A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1397,19 +1397,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A23B7-5609-214A-B6E5-B813689BB535}">
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:N112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,39 +1438,39 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>166</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1482,7 +1482,7 @@
         <v>8030</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
@@ -1491,30 +1491,30 @@
         <v>1996</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1526,7 +1526,7 @@
         <v>8024</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -1535,30 +1535,30 @@
         <v>2001</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1570,7 +1570,7 @@
         <v>8036</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
@@ -1579,30 +1579,30 @@
         <v>2001</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1614,7 +1614,7 @@
         <v>8030</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
@@ -1623,30 +1623,30 @@
         <v>2002</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1658,7 +1658,7 @@
         <v>8027</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
         <v>9</v>
@@ -1667,30 +1667,30 @@
         <v>2002</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -1702,7 +1702,7 @@
         <v>8029</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -1711,30 +1711,30 @@
         <v>2003</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -1746,7 +1746,7 @@
         <v>8050</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
         <v>9</v>
@@ -1755,30 +1755,30 @@
         <v>2005</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -1790,7 +1790,7 @@
         <v>8041</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
@@ -1799,30 +1799,30 @@
         <v>2006</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -1834,7 +1834,7 @@
         <v>8038</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
         <v>9</v>
@@ -1843,30 +1843,30 @@
         <v>2007</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -1878,7 +1878,7 @@
         <v>8050</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
         <v>9</v>
@@ -1887,30 +1887,30 @@
         <v>2006</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -1922,7 +1922,7 @@
         <v>8029</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
         <v>9</v>
@@ -1931,30 +1931,30 @@
         <v>2009</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -1966,7 +1966,7 @@
         <v>8029</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
         <v>9</v>
@@ -1975,30 +1975,30 @@
         <v>2009</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -2010,7 +2010,7 @@
         <v>8035</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
         <v>9</v>
@@ -2019,30 +2019,30 @@
         <v>2009</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -2054,7 +2054,7 @@
         <v>8016</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
         <v>9</v>
@@ -2063,30 +2063,30 @@
         <v>1984</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -2098,7 +2098,7 @@
         <v>8025</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
         <v>9</v>
@@ -2107,30 +2107,30 @@
         <v>2007</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -2142,7 +2142,7 @@
         <v>8019</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -2151,30 +2151,30 @@
         <v>2010</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -2186,7 +2186,7 @@
         <v>8019</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
         <v>9</v>
@@ -2195,30 +2195,30 @@
         <v>2010</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
@@ -2230,7 +2230,7 @@
         <v>8019</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s">
         <v>9</v>
@@ -2239,30 +2239,30 @@
         <v>2010</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
@@ -2274,7 +2274,7 @@
         <v>8019</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s">
         <v>9</v>
@@ -2283,30 +2283,30 @@
         <v>2010</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
@@ -2318,7 +2318,7 @@
         <v>8016</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s">
         <v>9</v>
@@ -2327,30 +2327,30 @@
         <v>2010</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -2362,7 +2362,7 @@
         <v>8036</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
         <v>9</v>
@@ -2371,30 +2371,30 @@
         <v>2004</v>
       </c>
       <c r="M22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -2406,7 +2406,7 @@
         <v>8038</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
         <v>9</v>
@@ -2415,30 +2415,30 @@
         <v>2004</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -2450,7 +2450,7 @@
         <v>8044</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
         <v>9</v>
@@ -2459,30 +2459,30 @@
         <v>2003</v>
       </c>
       <c r="M24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -2494,7 +2494,7 @@
         <v>8044</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
         <v>9</v>
@@ -2503,30 +2503,30 @@
         <v>2007</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -2538,7 +2538,7 @@
         <v>8026</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
         <v>9</v>
@@ -2547,30 +2547,30 @@
         <v>2002</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -2582,36 +2582,36 @@
         <v>9898</v>
       </c>
       <c r="J27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="K27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -2623,7 +2623,7 @@
         <v>9891</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
         <v>9</v>
@@ -2632,27 +2632,27 @@
         <v>9</v>
       </c>
       <c r="M28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -2664,7 +2664,7 @@
         <v>9751</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
         <v>9</v>
@@ -2676,24 +2676,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H30">
         <v>7474172</v>
@@ -2702,36 +2702,36 @@
         <v>9745</v>
       </c>
       <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="K30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -2743,39 +2743,39 @@
         <v>9092</v>
       </c>
       <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="K31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" t="s">
-        <v>143</v>
-      </c>
-      <c r="N31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -2787,7 +2787,7 @@
         <v>9166</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
         <v>9</v>
@@ -2799,24 +2799,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -2828,7 +2828,7 @@
         <v>9187</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
         <v>9</v>
@@ -2840,24 +2840,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -2869,7 +2869,7 @@
         <v>9151</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
         <v>9</v>
@@ -2881,24 +2881,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -2910,7 +2910,7 @@
         <v>9160</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
         <v>9</v>
@@ -2922,24 +2922,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
@@ -2951,7 +2951,7 @@
         <v>9165</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
         <v>9</v>
@@ -2963,24 +2963,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -2992,7 +2992,7 @@
         <v>9161</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K37" t="s">
         <v>9</v>
@@ -3004,24 +3004,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -3033,7 +3033,7 @@
         <v>9145</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
         <v>9</v>
@@ -3045,24 +3045,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -3074,7 +3074,7 @@
         <v>9145</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
         <v>9</v>
@@ -3086,24 +3086,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -3115,7 +3115,7 @@
         <v>9137</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K40" t="s">
         <v>9</v>
@@ -3127,24 +3127,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
@@ -3156,7 +3156,7 @@
         <v>9147</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
         <v>9</v>
@@ -3168,27 +3168,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H42">
         <v>17445856</v>
@@ -3197,7 +3197,7 @@
         <v>9203</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K42" t="s">
         <v>9</v>
@@ -3209,24 +3209,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
@@ -3238,7 +3238,7 @@
         <v>9203</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K43" t="s">
         <v>9</v>
@@ -3250,24 +3250,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
@@ -3291,24 +3291,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -3320,7 +3320,7 @@
         <v>8108</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K45" t="s">
         <v>9</v>
@@ -3329,30 +3329,30 @@
         <v>2003</v>
       </c>
       <c r="M45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
@@ -3364,7 +3364,7 @@
         <v>8111</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
         <v>9</v>
@@ -3373,30 +3373,30 @@
         <v>2002</v>
       </c>
       <c r="M46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G47" t="s">
         <v>9</v>
@@ -3408,7 +3408,7 @@
         <v>8111</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
         <v>9</v>
@@ -3417,30 +3417,30 @@
         <v>2003</v>
       </c>
       <c r="M47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
@@ -3452,7 +3452,7 @@
         <v>8111</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K48" t="s">
         <v>9</v>
@@ -3461,30 +3461,30 @@
         <v>2003</v>
       </c>
       <c r="M48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -3496,7 +3496,7 @@
         <v>8114</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
         <v>9</v>
@@ -3505,30 +3505,30 @@
         <v>2003</v>
       </c>
       <c r="M49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
@@ -3540,7 +3540,7 @@
         <v>8111</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
         <v>9</v>
@@ -3549,30 +3549,30 @@
         <v>2005</v>
       </c>
       <c r="M50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
@@ -3584,7 +3584,7 @@
         <v>8111</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K51" t="s">
         <v>9</v>
@@ -3593,30 +3593,30 @@
         <v>2006</v>
       </c>
       <c r="M51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -3628,7 +3628,7 @@
         <v>8111</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K52" t="s">
         <v>9</v>
@@ -3637,30 +3637,30 @@
         <v>2002</v>
       </c>
       <c r="M52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G53" t="s">
         <v>9</v>
@@ -3672,7 +3672,7 @@
         <v>8111</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K53" t="s">
         <v>9</v>
@@ -3681,30 +3681,30 @@
         <v>2002</v>
       </c>
       <c r="M53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G54" t="s">
         <v>9</v>
@@ -3716,7 +3716,7 @@
         <v>8112</v>
       </c>
       <c r="J54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K54" t="s">
         <v>9</v>
@@ -3725,30 +3725,30 @@
         <v>2009</v>
       </c>
       <c r="M54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G55" t="s">
         <v>9</v>
@@ -3760,7 +3760,7 @@
         <v>8108</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K55" t="s">
         <v>9</v>
@@ -3769,30 +3769,30 @@
         <v>2002</v>
       </c>
       <c r="M55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G56" t="s">
         <v>9</v>
@@ -3804,7 +3804,7 @@
         <v>8143</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K56" t="s">
         <v>9</v>
@@ -3813,30 +3813,30 @@
         <v>2009</v>
       </c>
       <c r="M56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G57" t="s">
         <v>9</v>
@@ -3848,7 +3848,7 @@
         <v>8114</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K57" t="s">
         <v>9</v>
@@ -3857,30 +3857,30 @@
         <v>2009</v>
       </c>
       <c r="M57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G58" t="s">
         <v>9</v>
@@ -3892,7 +3892,7 @@
         <v>8114</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K58" t="s">
         <v>9</v>
@@ -3901,30 +3901,30 @@
         <v>2009</v>
       </c>
       <c r="M58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G59" t="s">
         <v>9</v>
@@ -3936,7 +3936,7 @@
         <v>8114</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K59" t="s">
         <v>9</v>
@@ -3945,30 +3945,30 @@
         <v>2010</v>
       </c>
       <c r="M59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G60" t="s">
         <v>9</v>
@@ -3980,7 +3980,7 @@
         <v>8114</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K60" t="s">
         <v>9</v>
@@ -3989,30 +3989,30 @@
         <v>2010</v>
       </c>
       <c r="M60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G61" t="s">
         <v>9</v>
@@ -4024,7 +4024,7 @@
         <v>8114</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K61" t="s">
         <v>9</v>
@@ -4033,30 +4033,30 @@
         <v>2010</v>
       </c>
       <c r="M61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
         <v>9</v>
@@ -4068,7 +4068,7 @@
         <v>8114</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K62" t="s">
         <v>9</v>
@@ -4077,30 +4077,30 @@
         <v>2010</v>
       </c>
       <c r="M62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G63" t="s">
         <v>9</v>
@@ -4112,7 +4112,7 @@
         <v>8111</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K63" t="s">
         <v>9</v>
@@ -4121,30 +4121,30 @@
         <v>2011</v>
       </c>
       <c r="M63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N63" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G64" t="s">
         <v>9</v>
@@ -4156,7 +4156,7 @@
         <v>8114</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K64" t="s">
         <v>9</v>
@@ -4165,33 +4165,33 @@
         <v>2008</v>
       </c>
       <c r="M64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
       <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" t="s">
         <v>16</v>
-      </c>
-      <c r="F65" t="s">
-        <v>143</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
       </c>
       <c r="H65" t="s">
         <v>9</v>
@@ -4209,30 +4209,30 @@
         <v>9</v>
       </c>
       <c r="M65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
         <v>9</v>
@@ -4256,27 +4256,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
       </c>
       <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" t="s">
         <v>16</v>
-      </c>
-      <c r="F67" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
       </c>
       <c r="H67">
         <v>2928341</v>
@@ -4285,10 +4285,10 @@
         <v>9474</v>
       </c>
       <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
         <v>18</v>
-      </c>
-      <c r="K67" t="s">
-        <v>19</v>
       </c>
       <c r="L67" t="s">
         <v>9</v>
@@ -4297,24 +4297,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
@@ -4338,24 +4338,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
@@ -4376,27 +4376,27 @@
         <v>9</v>
       </c>
       <c r="M69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" t="s">
-        <v>101</v>
-      </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G70" t="s">
         <v>9</v>
@@ -4408,7 +4408,7 @@
         <v>8977</v>
       </c>
       <c r="J70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s">
         <v>9</v>
@@ -4417,33 +4417,33 @@
         <v>2018</v>
       </c>
       <c r="M70" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
       </c>
       <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" t="s">
         <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>159</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
       </c>
       <c r="H71">
         <v>2813380</v>
@@ -4464,27 +4464,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
       <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" t="s">
         <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>159</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
       </c>
       <c r="H72">
         <v>1660215</v>
@@ -4505,24 +4505,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G73" t="s">
         <v>9</v>
@@ -4546,24 +4546,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
         <v>9</v>
@@ -4587,24 +4587,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G75" t="s">
         <v>9</v>
@@ -4628,24 +4628,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G76" t="s">
         <v>9</v>
@@ -4669,24 +4669,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G77" t="s">
         <v>9</v>
@@ -4698,7 +4698,7 @@
         <v>8967</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K77" t="s">
         <v>9</v>
@@ -4707,30 +4707,30 @@
         <v>2013</v>
       </c>
       <c r="M77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G78" t="s">
         <v>9</v>
@@ -4742,7 +4742,7 @@
         <v>8967</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s">
         <v>9</v>
@@ -4751,30 +4751,30 @@
         <v>2015</v>
       </c>
       <c r="M78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G79" t="s">
         <v>9</v>
@@ -4786,7 +4786,7 @@
         <v>8967</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K79" t="s">
         <v>9</v>
@@ -4795,30 +4795,30 @@
         <v>2012</v>
       </c>
       <c r="M79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
@@ -4830,7 +4830,7 @@
         <v>8967</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K80" t="s">
         <v>9</v>
@@ -4839,30 +4839,30 @@
         <v>2007</v>
       </c>
       <c r="M80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
@@ -4874,7 +4874,7 @@
         <v>8967</v>
       </c>
       <c r="J81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" t="s">
         <v>9</v>
@@ -4883,30 +4883,30 @@
         <v>2011</v>
       </c>
       <c r="M81" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G82" t="s">
         <v>9</v>
@@ -4918,7 +4918,7 @@
         <v>8967</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" t="s">
         <v>9</v>
@@ -4927,30 +4927,30 @@
         <v>2007</v>
       </c>
       <c r="M82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N82" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G83" t="s">
         <v>9</v>
@@ -4962,7 +4962,7 @@
         <v>8967</v>
       </c>
       <c r="J83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K83" t="s">
         <v>9</v>
@@ -4971,30 +4971,30 @@
         <v>2009</v>
       </c>
       <c r="M83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G84" t="s">
         <v>9</v>
@@ -5006,7 +5006,7 @@
         <v>8967</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K84" t="s">
         <v>9</v>
@@ -5015,30 +5015,30 @@
         <v>2011</v>
       </c>
       <c r="M84" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N84" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G85" t="s">
         <v>9</v>
@@ -5050,7 +5050,7 @@
         <v>8967</v>
       </c>
       <c r="J85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K85" t="s">
         <v>9</v>
@@ -5059,30 +5059,30 @@
         <v>2011</v>
       </c>
       <c r="M85" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G86" t="s">
         <v>9</v>
@@ -5094,7 +5094,7 @@
         <v>8975</v>
       </c>
       <c r="J86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K86" t="s">
         <v>9</v>
@@ -5103,30 +5103,30 @@
         <v>2007</v>
       </c>
       <c r="M86" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G87" t="s">
         <v>9</v>
@@ -5138,7 +5138,7 @@
         <v>8962</v>
       </c>
       <c r="J87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s">
         <v>9</v>
@@ -5147,30 +5147,30 @@
         <v>2007</v>
       </c>
       <c r="M87" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G88" t="s">
         <v>9</v>
@@ -5182,7 +5182,7 @@
         <v>8971</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" t="s">
         <v>9</v>
@@ -5191,30 +5191,30 @@
         <v>2007</v>
       </c>
       <c r="M88" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N88" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
@@ -5226,7 +5226,7 @@
         <v>8961</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K89" t="s">
         <v>9</v>
@@ -5235,30 +5235,30 @@
         <v>2007</v>
       </c>
       <c r="M89" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
         <v>9</v>
@@ -5270,7 +5270,7 @@
         <v>8970</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s">
         <v>9</v>
@@ -5279,30 +5279,30 @@
         <v>2007</v>
       </c>
       <c r="M90" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N90" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G91" t="s">
         <v>9</v>
@@ -5314,7 +5314,7 @@
         <v>8964</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" t="s">
         <v>9</v>
@@ -5323,30 +5323,30 @@
         <v>2007</v>
       </c>
       <c r="M91" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G92" t="s">
         <v>9</v>
@@ -5358,7 +5358,7 @@
         <v>8964</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K92" t="s">
         <v>9</v>
@@ -5367,30 +5367,30 @@
         <v>2007</v>
       </c>
       <c r="M92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G93" t="s">
         <v>9</v>
@@ -5402,7 +5402,7 @@
         <v>8966</v>
       </c>
       <c r="J93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" t="s">
         <v>9</v>
@@ -5411,30 +5411,30 @@
         <v>2011</v>
       </c>
       <c r="M93" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N93" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G94" t="s">
         <v>9</v>
@@ -5446,7 +5446,7 @@
         <v>8971</v>
       </c>
       <c r="J94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" t="s">
         <v>9</v>
@@ -5455,30 +5455,30 @@
         <v>2011</v>
       </c>
       <c r="M94" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N94" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G95" t="s">
         <v>9</v>
@@ -5490,7 +5490,7 @@
         <v>8970</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" t="s">
         <v>9</v>
@@ -5499,30 +5499,30 @@
         <v>2011</v>
       </c>
       <c r="M95" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G96" t="s">
         <v>9</v>
@@ -5534,7 +5534,7 @@
         <v>8972</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s">
         <v>9</v>
@@ -5543,30 +5543,30 @@
         <v>2011</v>
       </c>
       <c r="M96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G97" t="s">
         <v>9</v>
@@ -5578,7 +5578,7 @@
         <v>8970</v>
       </c>
       <c r="J97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K97" t="s">
         <v>9</v>
@@ -5587,30 +5587,30 @@
         <v>2011</v>
       </c>
       <c r="M97" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N97" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G98" t="s">
         <v>9</v>
@@ -5622,7 +5622,7 @@
         <v>8970</v>
       </c>
       <c r="J98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98" t="s">
         <v>9</v>
@@ -5631,30 +5631,30 @@
         <v>2011</v>
       </c>
       <c r="M98" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G99" t="s">
         <v>9</v>
@@ -5666,7 +5666,7 @@
         <v>8970</v>
       </c>
       <c r="J99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s">
         <v>9</v>
@@ -5675,30 +5675,30 @@
         <v>2011</v>
       </c>
       <c r="M99" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N99" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G100" t="s">
         <v>9</v>
@@ -5710,7 +5710,7 @@
         <v>8972</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K100" t="s">
         <v>9</v>
@@ -5719,30 +5719,30 @@
         <v>2011</v>
       </c>
       <c r="M100" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N100" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G101" t="s">
         <v>9</v>
@@ -5754,7 +5754,7 @@
         <v>8972</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K101" t="s">
         <v>9</v>
@@ -5763,30 +5763,30 @@
         <v>2011</v>
       </c>
       <c r="M101" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N101" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G102" t="s">
         <v>9</v>
@@ -5798,7 +5798,7 @@
         <v>8970</v>
       </c>
       <c r="J102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K102" t="s">
         <v>9</v>
@@ -5807,30 +5807,30 @@
         <v>2011</v>
       </c>
       <c r="M102" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G103" t="s">
         <v>9</v>
@@ -5842,7 +5842,7 @@
         <v>8956</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K103" t="s">
         <v>9</v>
@@ -5851,30 +5851,30 @@
         <v>2014</v>
       </c>
       <c r="M103" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N103" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G104" t="s">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         <v>8956</v>
       </c>
       <c r="J104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K104" t="s">
         <v>9</v>
@@ -5895,30 +5895,30 @@
         <v>2014</v>
       </c>
       <c r="M104" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G105" t="s">
         <v>9</v>
@@ -5930,7 +5930,7 @@
         <v>8963</v>
       </c>
       <c r="J105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s">
         <v>9</v>
@@ -5939,30 +5939,30 @@
         <v>2017</v>
       </c>
       <c r="M105" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N105" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G106" t="s">
         <v>9</v>
@@ -5974,7 +5974,7 @@
         <v>8963</v>
       </c>
       <c r="J106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K106" t="s">
         <v>9</v>
@@ -5983,30 +5983,30 @@
         <v>2017</v>
       </c>
       <c r="M106" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N106" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G107" t="s">
         <v>9</v>
@@ -6018,7 +6018,7 @@
         <v>8964</v>
       </c>
       <c r="J107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K107" t="s">
         <v>9</v>
@@ -6027,30 +6027,30 @@
         <v>2002</v>
       </c>
       <c r="M107" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N107" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G108" t="s">
         <v>9</v>
@@ -6062,7 +6062,7 @@
         <v>8976</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s">
         <v>9</v>
@@ -6071,30 +6071,30 @@
         <v>2008</v>
       </c>
       <c r="M108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N108" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G109" t="s">
         <v>9</v>
@@ -6106,7 +6106,7 @@
         <v>8961</v>
       </c>
       <c r="J109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K109" t="s">
         <v>9</v>
@@ -6115,30 +6115,30 @@
         <v>2006</v>
       </c>
       <c r="M109" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G110" t="s">
         <v>9</v>
@@ -6150,7 +6150,7 @@
         <v>8972</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K110" t="s">
         <v>9</v>
@@ -6159,30 +6159,30 @@
         <v>2011</v>
       </c>
       <c r="M110" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N110" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G111" t="s">
         <v>9</v>
@@ -6194,7 +6194,7 @@
         <v>8970</v>
       </c>
       <c r="J111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K111" t="s">
         <v>9</v>
@@ -6203,30 +6203,30 @@
         <v>2012</v>
       </c>
       <c r="M111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="G112" t="s">
         <v>9</v>
@@ -6238,7 +6238,7 @@
         <v>9462</v>
       </c>
       <c r="J112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K112" t="s">
         <v>9</v>
